--- a/medicine/Enfance/Jean-Luc_Luciani/Jean-Luc_Luciani.xlsx
+++ b/medicine/Enfance/Jean-Luc_Luciani/Jean-Luc_Luciani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Luc Luciani (né le 19 avril 1960 à Marseille) est un écrivain pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auteur de romans pour la jeunesse, dont la plupart se déroulent à Marseille.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jeunesse
-Barjoland. Le Muscadier. Collection Rester vivant. (2019).
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Barjoland. Le Muscadier. Collection Rester vivant. (2019).
 Sables émouvants (nouvelles). Le Muscadier. Collection Rester vivant. (2018).
 Station Sous-Paradis. Le Muscadier. Collection Rester vivant. (2016).
 Brigade Sud : Menaces sur la ville. Éditions Rageot. Collection Heure Noire. (2014)
@@ -579,8 +598,8 @@
 Brigade Sud. La disparition. Éditions Rageot. Collection Heure Noire. (2007).
 Le Jour où j’ai raté le bus. (Livre + CD). Éditions Didier. Collection FLE . (2007).
 Célestin Radkler, Prince des illusions. Éditions Gallimard. Collection Hors-Pistes. (2006).
-Le Jeu. La Traque[1] Éditions Rageot. Collection Rageot-romans. (2006).
-Le Jeu. Game Over[2], Éditions Rageot. Collection Rageot-romans. (2006).
+Le Jeu. La Traque Éditions Rageot. Collection Rageot-romans. (2006).
+Le Jeu. Game Over, Éditions Rageot. Collection Rageot-romans. (2006).
 Un bruit qui court. Éditions Rouge Safran. Collection Cannelle. (2006).
 Le Jour où j’ai raté le bus. Éditions Rageot. Collection Rageot-romans. (2006).
 Et pour quelques Kébabs de plus. Éditions Lito. Collection Moi j’aime les romans. (2005).
@@ -596,19 +615,122 @@
 Où Marseille rejoint le royaume de France. Éditions Rouge Safran. Collection Basilic (2001).
 La Ville qui rend foot. Éditions Rageot. Collection Cascade (2001).
 Les Dix Petits Maigres. Éditions du Bastberg. Collection Sarbacane (2000).
-Le Secret de Papy Frioul. Éditions Epigones. Collection Myriades (1998).
-Brigade sud
-Le père d'Inès est chef de la brigade sud de Marseille. Avec des parents divorcés, Inès rend visite à son père lors de ses vacances, ce qui va l'entraîner dans de nombreuses enquêtes.
-Adulte
-Et mon cœur dévasté ne te veut que du bien. Editions LBS. (2018)
+Le Secret de Papy Frioul. Éditions Epigones. Collection Myriades (1998).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Luc_Luciani</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Luc_Luciani</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brigade sud</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père d'Inès est chef de la brigade sud de Marseille. Avec des parents divorcés, Inès rend visite à son père lors de ses vacances, ce qui va l'entraîner dans de nombreuses enquêtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Luc_Luciani</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Luc_Luciani</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adulte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Et mon cœur dévasté ne te veut que du bien. Editions LBS. (2018)
 La troisième loi Newton. Editions Acunitum. (2016).
 Un léger bruit dans le moteur. Éditions L’écailler. Collection le petit écailler. (2012)
 La tyrannie des mouches. Éditions Mutine. (2011)
 Les Fables marseillaises. Éditions CLC. (2006).
 Puzzle noir. Éditions CLC. Collection Rouge et noir. (2005).
-Un léger bruit dans le moteur. Éditions L’écailler du Sud. (2004).
-Bande-dessinée
-Un léger bruit dans le moteur[3], adaptation de Gaët's, dessins de Jonathan Munoz, Éditions Physolis (2012). Prix SNCF du polar 2013 catégorie bande dessinée[4]. Réédition en 2017 aux Editions Petit à Petit[5].</t>
+Un léger bruit dans le moteur. Éditions L’écailler du Sud. (2004).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Luc_Luciani</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Luc_Luciani</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande-dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un léger bruit dans le moteur, adaptation de Gaët's, dessins de Jonathan Munoz, Éditions Physolis (2012). Prix SNCF du polar 2013 catégorie bande dessinée. Réédition en 2017 aux Editions Petit à Petit.</t>
         </is>
       </c>
     </row>
